--- a/data/extracted_RHC.xlsx
+++ b/data/extracted_RHC.xlsx
@@ -1,29 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnygupta/cath_parsing/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF963EF-2714-FF4F-A685-44FD91CA79F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">recordID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC_extracted_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/13/2014 12:58:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+  <si>
+    <t>recordID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>RHC</t>
+  </si>
+  <si>
+    <t>RHC_extracted</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>03/13/2014 12:58:00</t>
+  </si>
+  <si>
+    <t>Indication:
+annual LHC/RHC/Biopsy
+Procedure Details:
+1- 4 F RCFA with micropuncture kit
+2- 7 F RCFV with micropuncture kit 
+3- Left coronary angiogram : JL5/ JR4
+4- Left ventriculography 
+5- Right heart catheterization
+Findings: 
+RHC:
+RA 22/28/21
+RV 37/23 
+PA 38/23/29
+PCWP 20 
+Fick CO/CI 4.04/2.28 
+SVR 1564/ PVR 178 
+LHC:
+Patent left main stent 
+Proximal 30 % LAD stenosis
+RCA diffuse distal disease 
+Impression:
+Severe TR 
+Chronic dissection in RFA 
+CAV 3 
+Restrictive physiology</t>
   </si>
   <si>
     <t xml:space="preserve">RHC:
@@ -36,7 +77,60 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10/16/2014 11:43:00</t>
+    <t xml:space="preserve"> 22/28/21
+</t>
+  </si>
+  <si>
+    <t>10/16/2014 11:43:00</t>
+  </si>
+  <si>
+    <t>RHC (4/14)
+RA 21/20 (20).
+RV 34/7 (20)
+PA 35/22 (28)
+PCWP: 18/30 (17) 
+CO (Fick): 3.84 L/min
+CI: 2.17
+SVR: 21.1 WU
+PVR: 2.9 WU. 4 small biopsy samples collected. . 
+RHC/LHC (3/14)
+Indication:
+annual LHC/RHC/Biopsy
+Procedure Details:
+1- 4 F RCFA with micropuncture kit
+2- 7 F RCFV with micropuncture kit 
+3- Left coronary angiogram : JL5/ JR4
+4- Left ventriculography 
+5- Right heart catheterization
+Findings: 
+RHC:
+RA 22/28/21
+RV 37/23 
+PA 38/23/29
+PCWP 20 
+Fick CO/CI 4.04/2.28 
+SVR 1564/ PVR 178 
+LHC:
+Patent left main stent 
+Proximal 30 % LAD stenosis
+RCA diffuse distal disease 
+Impression:
+Severe TR 
+Chronic dissection in RFA 
+CAV 3 
+Restrictive physiology 
+TTE (4/14)
+1. Left ventricular ejection fraction is 55-60%.
+2. Aortic valve is tricuspid, thickened and sclerotic.
+3. Severely dilated right atrium.
+4. Elongated left atrium.
+5. Mild aortic valve insufficiency.
+6. Dilated inferior vena cava, with respiratory size variation less than 50%.
+7. Severe tricuspid regurgitation.
+8. Severe diastolic dysfunction with a restrictive pattern and evidence of elevated left atrial pressures.
+9. Mild mitral valve regurgitation.
+10. Moderately enlarged right ventricular cavity size.
+11. Moderately to severely reduced right ventricular systolic function.</t>
   </si>
   <si>
     <t xml:space="preserve">RHC (4/14)
@@ -68,7 +162,50 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10/16/2014 15:27:00</t>
+    <t xml:space="preserve"> 21/20 (20).
+</t>
+  </si>
+  <si>
+    <t>10/16/2014 15:27:00</t>
+  </si>
+  <si>
+    <t>Procedures performed: RHC / LHC
+Access:
+The left femoral artery and vein were used for access due to known prior chronic left femoral artery dissection.
+A 4F system was used for the left femoral artery
+A 5F system was used for the left femoral vein - there was difficulty in access, would recommend a different site of access for future procedures
+Catheters:
+JR4/JL4 for coronary angiography. There was difficulty engaging the RCA, would consider MP for future procedures
+5F Angled glide terumo catheter used for RHC (no 5F PA catheter available)
+RHC:
+Hgb - 11.5
+MAP - 111 mmHg
+BSA - 1.74
+Hemodynamics (mmHg):
+RA 25/28/22
+RV 37/21
+PA 39/23/30
+PCWP 22
+LVEDP 22
+SATS (%):
+PA 69.9
+FA 99.0
+Calculations:
+CO 4.79 L/min
+CI 2.75 L/min/m2
+PVR 1.67 WU
+SVR 1485 Dynes
+RHC Conclusion:
+Restrictive physiology, filling pressures grossly unchanged from prior RHC in April, 2014. 
+Plan for next RHC in 1 year
+LHC:
+LM stent patent
+LAD with mild LI diffusely
+LCX with mild LI 
+Difficulty engaging RCA with 4F JR4 catheter. Would consider either 5F system or MP catheter for future procedures. 
+LHC Conclusion:
+CAV 3, stable
+Plan for next LHC in 6 months</t>
   </si>
   <si>
     <t xml:space="preserve">RHC:
@@ -102,13 +239,66 @@
 Plan for next </t>
   </si>
   <si>
-    <t xml:space="preserve">03/09/2015 18:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC showed CI 2.44/CO 4.27, PCWP 15, and SVR 1460.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2014 08:41:00</t>
+    <t xml:space="preserve"> 25/28/22
+</t>
+  </si>
+  <si>
+    <t>03/09/2015 18:30:00</t>
+  </si>
+  <si>
+    <t>23 yo AAF with idiopathic dilated CM diagnosed at childbirth, s/p OHT x 2 (1992, 2002), s/p LHC/RHC+biopsy ahead of schedule due to recent CHF decompensation with unclear trigger today who is being admitted for further w/u and treatment evaluation for severe TR.
+Right heart failure 2/2 severe TR: stage C, Class III. RHC 3/9/15 showed CI of 2/CO 4, PCWP 15, SVR of 1460, and elevated RAP of 21
+- mild volume on exam (mild edema around ankles, JVP up to jaw), warm
+- abdominal US with trace fluid, insufficient for paracentesis
+- hold diuresis for now given relatively ASx, mild volume on
+- consult CT surg or structural team tomorrow for possible intervention for sever TR
+- holding ASA and Plavix given possible intervention
+- held aldactone given AKI, BP okay
+- can start hydralazine for afterload reduction if BP trends up
+Acute gout flare:
+- start Pred 40 mg daily
+- cont renally dose allopurinol 100 mg QD
+AKI: likely renal congestion from severe R heart failure vs overdiuresis
+- monitor
+- definitive intervention for severe TR pending
+Hypomagnesemia: likely from diuresis
+- replete with IV Mag
+Hypokal: likely from diuresis
+- replete with K PO
+s/p OHT: rapamycin level low at 2.2, similar to previous on 3/2/2015. Have discussed dosing with overnight pharmacist who is also unsure about dosing of transplant med; o/n pharmacist will let transplant pharmacist know about patient's rapamycin level for further recs.
+- for now, will cont sirolimus 1 mg QHS and tacrolimus total 8 mg BID
+- check prograf level
+DVT ppx: hep subQ
+code: full
+Dispo: once medically stable
+Lorraine Cafuir, PGY-2
+PIC #49602</t>
+  </si>
+  <si>
+    <t>23 yo AAF with idiopathic dilated CM diagnosed at childbirth, s/p OHT x 2 (1992, 2002), s/p LHC/RHC+biopsy ahead of schedule due to recent CHF decompensation with unclear trigger today who is being admitted for further w/u and treatment evaluation for severe TR. Pt seen in HF clinic last week with increasing SOB, DOE, and edema, diuretic changed to Torsemide; pt has been taking 100 mg BID (except yesterday when she only took 40 mg BID 2/2 gout flare). Pt states she has lost some wt and had good UOP with torsemide. Reports improved dyspnea with higher dose of Torsemide. Currently denies dyspnea, orthopnea, PND, lightheadedness, dizziness, chest pain; states b/l LE and abdominal swelling as well as early satiety improved with torsemide. Denies abdominal pain. Only c/o left 2nd digit pain at MCP joint which she attributed to gout flare (she usually gets gout at this site and podagra).
+  RHC showed CI 2.44/CO 4.27, PCWP 15, and SVR 1460.</t>
+  </si>
+  <si>
+    <t>RHC showed CI 2.44/CO 4.27, PCWP 15, and SVR 1460.</t>
+  </si>
+  <si>
+    <t>11/12/2014 08:41:00</t>
+  </si>
+  <si>
+    <t>42 y/o male with CF, DM, CKD, here for RHC in support of lung transplant evaluation. He had a R and LHCi n 7/2013. Results as below:
+ Findings:
+Right heart cath
+RA 13 mmHg
+RV 47/12 mmHg
+PA 46/24 (34) mmHg
+PCWP 15 mmHg
+Fick CO 6.7
+Fick CI 4.0
+FA sat 90
+RA sat 57.3
+PA sat 64.2
+Left heart cath
+Normal coronary arteries</t>
   </si>
   <si>
     <t xml:space="preserve">Right heart cath
@@ -124,7 +314,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">09/24/2012 16:08:00</t>
+    <t xml:space="preserve"> 13</t>
+  </si>
+  <si>
+    <t>09/24/2012 16:08:00</t>
+  </si>
+  <si>
+    <t>RHC Findings:
+RA   14/15 13mmHg
+RV  53/9 mmHg
+PA  50/25 36 mmHg
+PCWP  24/31 25 mmHg
+Ao  192/95 136 mmHg
+Hgb   9g/dl
+FAsat  97%
+PAsat  69%
+Fick CO   5.84L/min
+Fick CI   3.6L/min/m2
+SVR 1685
+PVR 151
+RV biopsy x 5 taken from apical septum
+LHC Findings
+No angiographic disease in LAD, LCx, RCA
+LVEF 60%
+Right dominant
+Impression
+1. CAV0
+2. Elevated filling pressures
+3. Normal LVEF
+Recommendations:
+- Await biopsy results
+- Start diuretics with furosemide 20mg and spironolactone 12.5mg
+- Blood sent for DSA, HLA
+- f/u with transplant clinic</t>
   </si>
   <si>
     <t xml:space="preserve">RHC Findings:
@@ -144,7 +366,44 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">12/02/2016 12:00:00</t>
+    <t xml:space="preserve">   14/15</t>
+  </si>
+  <si>
+    <t>12/02/2016 12:00:00</t>
+  </si>
+  <si>
+    <t>22 October 2015 23:22 
+Left &amp; Right Heart Cath (LHC-RHC)
+Summary:
+Left Heart Cath Findings:
+Left Main: Normal
+LAD: angiographically normal 
+LCx: angiographically normal 
+RCA: angiographically normal 
+LVEDP: 16 mmHg
+LV Gram: EF 65% with normal wall motion
+Right Heart Cath Findings
+Femoral Artery Saturation: 97%
+Pulmonary Artery Saturation: 63.6%
+Hb: 11.8 g/dL
+Mean RA Pressure: 7mmHg
+RV Pressure: 39/7mmHg
+PA Pressure: 38/14(25) mmHg
+PCWP: 16mmHg
+CO: 3.78L/min
+CI: 2.33L/min/m^2
+SVR: 2665dynes*sec/cm-5
+PVR: 190dynes*sec/cm-5
+Endomyocardial biopsies x 4 were performed
+Impression
+- CAV 0
+- HTN
+Recommendations
+- Lifestyle modificaitons
+- Next LHC 2 yrs
+- HTN control
+. 
+Recommendations: Medical therapy and/or counseling.</t>
   </si>
   <si>
     <t xml:space="preserve">Right Heart Cath Findings
@@ -163,16 +422,33 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">12/03/2016 16:29:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/04/2016 14:19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/05/2016 11:53:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/06/2011 09:58:00</t>
+    <t/>
+  </si>
+  <si>
+    <t>12/03/2016 16:29:00</t>
+  </si>
+  <si>
+    <t>12/04/2016 14:19:00</t>
+  </si>
+  <si>
+    <t>12/05/2016 11:53:00</t>
+  </si>
+  <si>
+    <t>07/06/2011 09:58:00</t>
+  </si>
+  <si>
+    <t>80yo male s/p OHTx in 1990 with known CAV presenting for right and left heart catheterization. RHC hemodynamic data are as follows:
+RA=11mmHg
+RV=42/11mmHg
+PA=40/16mmHg (mean=26)
+PCWP=21mmHg
+PA sat=58.8%
+FA sat=96.4%
+CO (Fick)=4.24L/min
+CI=2.13
+PVR=94
+SVR=1586
+Left heart catheterization showed a 100% proximal LAD occlusion (known); the LAD fills via right to left collaterals. The LCx has a patent stent in the mid segment; the remainder of the LCA has luminal irregularities. The RCA has a 80% proximal stenosis (in-stent restenosis). The proximal RPLV branch has a 90% stenosis. LVEF=55%. LVEDP=18mmHg. Please note that the patient has a high bifurcation of the CFA at the level of the mid femoral head. Patient will be referred for angioplasty to the RCA. Please refer to intervention report for further details. Recommend maximum medical therapy and aggressive risk factor modification.</t>
   </si>
   <si>
     <t xml:space="preserve">RHC hemodynamic data are as follows:
@@ -189,10 +465,46 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">07/06/2011 17:31:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/09/2012 09:47:00</t>
+    <t>07/06/2011 17:31:00</t>
+  </si>
+  <si>
+    <t>80yo male s/p OHTx in 1990 with known CAV presenting for right and left heart catheterization. RHC hemodynamic data are as follows:
+RA=11mmHg
+RV=42/11mmHg
+PA=40/16mmHg (mean=26)
+PCWP=21mmHg
+PA sat=58.8%
+FA sat=96.4%
+CO (Fick)=4.24L/min
+CI=2.13
+PVR=94
+SVR=1586
+Left heart catheterization showed a 100% proximal LAD occlusion (known); the LAD fills via right to left collaterals. The LCx has a patent stent in the mid segment; the remainder of the LCA has luminal irregularities. The RCA has a 80% proximal stenosis (in-stent restenosis). The proximal RPLV branch has a 90% stenosis. LVEF=55%. LVEDP=18mmHg. Please note that the patient has a high bifurcation of the CFA at the level of the mid femoral head. Patient will be referred for angioplasty to the RCA. Please refer to intervention report for further details. Recommend maximum medical therapy and aggressive risk factor modification. .</t>
+  </si>
+  <si>
+    <t>08/09/2012 09:47:00</t>
+  </si>
+  <si>
+    <t>Impression:
+LHC:
+Left main: ostial 20 % stenosis. 
+LAD: 50 % proximal Mid stenosis.
+LCx: small distal disease
+RCA: Patent proximal stent, 60 % mid- RCA stenosis.
+LVEF 60 % 
+RHC: 
+RA 20/22/18
+RV 53/10
+PA 54/29/33
+PCWP 20/25/27
+PA sat 63.7
+Fick CO 3.78
+Fick CI 2.14
+SVR 1947PVR 127
+Right common femoral sealed with 5 F exoseal 
+contrast: 45 CC 
+Plan:
+6 month LHC with FFR maybe in the inpatient lab</t>
   </si>
   <si>
     <t xml:space="preserve">RHC: 
@@ -210,7 +522,46 @@
 6 month </t>
   </si>
   <si>
-    <t xml:space="preserve">04/12/2016 12:57:00</t>
+    <t xml:space="preserve"> 20/22/18
+</t>
+  </si>
+  <si>
+    <t>04/12/2016 12:57:00</t>
+  </si>
+  <si>
+    <t>Access:
+      - Right femoral artery, 6Fr sheath
+      - Right femoral vein, 7Fr SHeath
+Catheters:
+      - 6Fr MP
+      - 7Fr Swan
+Contrast: 35cc
+Closure:
+      - Manual due to calcified femoral artery
+Findings:
+LHC
+      - Left main: 10%
+      - Mid LAD: 20%
+      - Distal LAD after OM2: 30%
+      - LcX: luminals
+      - RCA: Patent stents. 
+      - LVEF: 60%, normal wall motion
+      - EDP: 16 mmHg
+      - No aortic valve gradient
+RHC:
+      - RA: 15
+      - RV: 43/13
+      - PA: 44/17 (26)
+      - PCWP: 17/21/16
+      - Hgb: 12.2
+      - PA: 61.9%
+      - FA: 96.9%
+      - CO: 3.81LPM
+      - CI: 2.15
+      - SVR: 1656
+      - PVR: 210
+Plan: 
+- continue optimal medical therapy</t>
   </si>
   <si>
     <t xml:space="preserve">RHC:
@@ -228,10 +579,109 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">04/03/2018 09:47:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/06/2013 17:26:00</t>
+    <t>: 15
+      -</t>
+  </si>
+  <si>
+    <t>04/03/2018 09:47:00</t>
+  </si>
+  <si>
+    <t>Procedures:
+LHC and RHC
+Indications:
+Post heart transplant follow up
+Access/Hemostasis: 
+Right Femoral artery accessed. 6F sheath placed. Right femoral vein accessed. 7F sheath placed. Sheaths to be removed under manual pressure.
+Catheters/Equipment: 
+6F MPA2 guide catheter, 6F JR4 guide catheter, Swan ganz catheter
+Findings:
+Hb 8.8 mg/dl
+RA 15/21/15 mmHg
+RV 47/7/15 mmHg
+PA 40/15/25 mmHg
+PCWP 17/20/16 mmHg
+Ao 129/49/86 mmHg
+PA Sat 47.8%
+FA Sat 91%
+Fick CO 4.37 L/min
+Fick CI 2.42 L/min/m2
+SVR 1171 dynes cm5/sec
+PVR 165 dynes cm5/sec
+LM - normal
+LAD - pLAD 40%, mLAD 40%
+LCx - LI
+RI - not present
+RCA - pRCA 40% ISR, mRCA 40% ulcerated plaque
+Right dominant circulation.
+Left Ventricle:
+LVEDP - 15 mmHg
+LVEF - 70%
+Procedure Details:
+After informed consent was obtained, the patient was prepped and draped in the usual sterile fashion. Right femoral vein was accessed and a 7F sheath was placed. RHC was performed w/ a swan ganz catheter. Right femoral artery was accessed and a 6F sheath was advanced over wire. LCA was engaged with MPA2 guide, LVgram was performed w/ MPA2. RCA was engaged with JR 4 guide and diagnostic angiography was completed. At the conclusion of the case, all equipment was removed with sheaths to be removed later under manual pressure.
+Impression:
+Normal hemodynamics
+Stable CAV
+Recommendations:
+Optimize medical management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings:
+Hb 8.8 mg/dl
+RA 15/21/15 mmHg
+RV 47/7/15 mmHg
+PA 40/15/25 mmHg
+PCWP 17/20/16 mmHg
+Ao 129/49/86 mmHg
+PA Sat 47.8%
+FA Sat 91%
+Fick CO 4.37 L/min
+Fick CI 2.42 L/min/m2
+SVR 1171 dynes cm5/sec
+PVR 165 dynes cm5/sec
+LM - normal
+LAD - pLAD 40%, mLAD 40%
+LCx - LI
+RI - not present
+RCA - pRCA 40% ISR, mRCA 40% ulcerated plaque
+Right dominant circulation.
+Left Ventricle:
+LVEDP - 15 mmHg
+LVEF - 70%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/21/15</t>
+  </si>
+  <si>
+    <t>05/06/2013 17:26:00</t>
+  </si>
+  <si>
+    <t>Indication: s/p OHT 1992 and repeat OHT 1998; CAV ISLT III
+Impression
+1. LHC:
+-CAV ISLT III, coronary vessel ectasia is noted throughout
+-diffuse disease
+-LM: ostial 20-30%
+-LAD: mid 70%, distal is diffusely diseased 50-60% with ISR; D2 has 50% ostial stenosis
+-LCx: proximal 40% stenosis, patent stents in the inferior limb of the OM-2
+-RCA: 40% stenosis at the mid-disal junction, luminals in the PDA and RPLV
+-V-gram shows EF 35% with inferior wall akinesis and anterolateral wall akinesis
+-LV EDP 16 mm Hg
+-access: RFA (5F), JL5 and JR 5 used, dilated ascending aortic root ~ 50 mm (known prior)
+2. RHC:
+-mild pulmonary hypertension mean PA 28 mm Hg
+-PA sat 63.4% Fick CO 4.43 CI 2.20
+RA 18/17/15
+RV 38/16
+PA 43/23/28
+PCWP 24
+Plan:
+1. discuss with interventional cardiology re: possible PCI to mid LAD and POBA to distal LAD (for ISR)
+2. consider MRI aorta to r/o aortits given her ascending aortic root aneurysm (patient has had two prior OHT's)
+3. repeat LHC in 6 months, use JL 5 and JR 5
+4. check comprehensive TTE
+5. needs serial imaging to follow her dilated aortic root
+6. continue immunosuppression, resume coumadin tonight, hold ASA 81 (already on plavix)</t>
   </si>
   <si>
     <t xml:space="preserve">RHC:
@@ -247,16 +697,26 @@
 3. repeat </t>
   </si>
   <si>
-    <t xml:space="preserve">05/29/2014 17:26:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months. At her baseline, she was able to go to the grocery store and do her own shopping. However, it has now progressed to the point where she has trouble walking all the way to the kitchen. She feels like her appetite is OK, though gets occasional indigestion and vomits once a week. She thinks her allergies and post-nasal drip may contribute to it. Her PCWP was found to be 26, and her mean PA pressure was 36.
+    <t xml:space="preserve"> 18/17/15
+</t>
+  </si>
+  <si>
+    <t>05/29/2014 17:26:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx oh OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months. At her baseline, she was able to go to the grocery store and do her own shopping. However, it has now progressed to the point where she has trouble walking all the way to the kitchen. She feels like her appetite is OK, though gets occasional indigestion and vomits once a week. She thinks her allergies and post-nasal drip may contribute to it. Her PCWP was found to be 26, and her mean PA pressure was 36.
 Her diarrhea has been going on for about six months, around the time she started Pradaxa. She will occasionally go two weeks where the diarrhea will improve. However, often has days where she has 6 BMs a day. She wears pads due to leakage. Hasn't tried any meds because she was concerned for interactions with her transplant meds. Has not seen a GI doctor yet, though she was referred. Last c-scope was 2 years ago, which she reports was normal.
 She noticed a lump in her left breast one week ago. Not painful. Her last mammogram was 2 years ago.
 In regards to her memory, patient's daughter states that her memory is not that bad, but she will occasionally miss doctor appointments because she forgets. Still able to manage her own finances and cook for herself. Independent with ADLs.</t>
   </si>
   <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months. At her baseline, she was able to go to the grocery store and do her own shopping. However, it has now progressed to the point where she has trouble walking all the way to the kitchen. She feels like her appetite is OK, though gets occasional indigestion and vomits once a week. She thinks her allergies and post-nasal drip may contribute to it. Her PCWP was found to be 26, and her mean PA pressure was 36.
+Her diarrhea has been going on for about six months, around the time she started Pradaxa. She will occasionally go two weeks where the diarrhea will improve. However, often has days where she has 6 BMs a day. She wears pads due to leakage. Hasn't tried any meds because she was concerned for interactions with her transplant meds. Has not seen a GI doctor yet, though she was referred. Last c-scope was 2 years ago, which she reports was normal.
+She noticed a lump in her left breast one week ago. Not painful. Her last mammogram was 2 years ago.
+In regards to her memory, patient's daughter states that her memory is not that bad, but she will occasionally miss doctor appointments because she forgets. Still able to manage her own finances and cook for herself. Independent with ADLs.</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - With S3 and JVD. Will check BNP
@@ -297,10 +757,51 @@
 PIC 63145</t>
   </si>
   <si>
-    <t xml:space="preserve">05/30/2014 14:59:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- With S3 and JVD. Will check BNP
+- Will give 100 mg Lasix IV tonight
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- Check CMV, EBV
+- Low sodium diet, I's/O's, fluid restriction
+- Slightly hypertensive: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 160 mg
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd
+- Continue Pradaxa
+Diarrhea
+- Has been chronic. Unclear etiology. Consider sirolimus, CMV, DM, other meds
+- Will get GI consult in AM
+- Checking CMV as above.
+DM
+- A1c 9
+- Continue Lantus 20 units
+- SSI and POCT
+- Follows with PCP
+Ascending aortic aneurysm
+- 5.4 cm
+- Will obtain non-con chest CT to further evaluate
+Breast lump
+- Getting non-contrast chest CT as above
+- Consider diagnostic mammogram here while in house pending above
+Memory loss
+- Likely has element of mild cognitive impairment
+- Still independent with ADLs
+- Neuro consult in AM
+On Pradaxa
+Low sodium diet
+Full code
+Jeff Lee, MD
+PGY-2
+PIC 63145</t>
+  </si>
+  <si>
+    <t>05/30/2014 14:59:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - With S3, S4 and JVD.
@@ -344,10 +845,54 @@
 PIC 63145</t>
   </si>
   <si>
-    <t xml:space="preserve">05/31/2014 11:07:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- With S3, S4 and JVD.
+- Good response with IV Lasix. Will redose with Lasix 120 mg IV today.
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- Check CMV, EBV
+- Low sodium diet, I's/O's, fluid restriction
+- Slightly hypertensive: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 160 mg. Will increase Valsartan to 320 mg
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd
+- Continue Pradaxa
+Diarrhea
+- Has been chronic. Unclear etiology. Consider sirolimus, CMV, DM, other meds
+- GI c/s: Send stool studies. Possible EGD/c-scope if hemodynamically stable. Need to call GI over weekend if procedure on Monday is doable. 
+- Checking CMV as above.
+DM
+- A1c 9
+- Continue Lantus 20 units
+- SSI and POCT
+- Follows with PCP
+Ascending aortic aneurysm
+- 5.4 cm on TTE one year ago
+- Non-con chest shows dimensions of 6.1 cm.
+- Will consult CT surgery
+Breast lump
+- Seen on chest CT as well
+- Getting diagnostic mammogram here
+Memory loss
+- Likely has element of mild cognitive impairment
+- Still independent with ADLs
+- Will check B12, RPR, TSH, folate
+Nasal congestion
+- Will start Flonase
+On Pradaxa
+Low sodium diet
+Full code
+Jeff Lee, MD
+PGY-2
+PIC 63145</t>
+  </si>
+  <si>
+    <t>05/31/2014 11:07:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - Good response with IV Lasix. Will redose with Lasix 120 mg IV again today.
@@ -390,16 +935,62 @@
 PIC 15335</t>
   </si>
   <si>
-    <t xml:space="preserve">05/31/2014 12:21:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC-proven elevated PCWP and right-sided pressures, Ascending aortic aneurysm, HTN, HLD, depression, breast lump, memory loss, recent diarrhea, 3 mo worsening fatigue and SOB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/01/2014 13:06:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- Good response with IV Lasix. Will redose with Lasix 120 mg IV again today.
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- CMV PCR negative
+- Low sodium diet, I's/O's, fluid restriction
+- BP well controlled: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 160 mg. Will increase Valsartan to 320 mg
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd
+- Continue Pradaxa
+Diarrhea
+- Has been chronic. Unclear etiology. 
+- GI c/s: stool studies sent. Possible EGD/c-scope if hemodynamically stable. Need to call GI Sunday if procedure on Monday is possible from a HF standpoint. 
+- CMV, C diff negative. EBV weakly positive. 
+DM
+- A1c 9
+- Continue Lantus 20 units, titrate as needed
+- SSI and POCT
+- Follows with PCP
+Ascending aortic aneurysm
+- 5.4 cm on TTE one year ago
+- Non-con chest shows dimensions of 6.1 cm.
+- Will consult CT surgery
+Breast lump
+- Seen on chest CT as well
+- Getting diagnostic mammogram here on Monday. May need to call Monday am to confirm.
+Memory loss
+- Likely has element of mild cognitive impairment
+- Still independent with ADLs
+- B12, TSH, folate WNL. RPR P
+Nasal congestion
+- Flonase
+On Pradaxa
+Low sodium diet
+Full code
+Catherine Marti, MD MSc
+Cardiology Fellow
+PIC 15335</t>
+  </si>
+  <si>
+    <t>05/31/2014 12:21:00</t>
+  </si>
+  <si>
+    <t>OHTx in 1992 and in 1998, CAB 3, IDDM with A1C 9, rate-controlled A-fib, CVA 9/11 without residual functional deficit, RHC/LHC-proven elevated PCWP and right-sided pressures, Ascending aortic aneurysm, HTN, HLD, depression, breast lump, memory loss, recent diarrhea, 3 mo worsening fatigue and SOB.</t>
+  </si>
+  <si>
+    <t>RHC/LHC-proven elevated PCWP and right-sided pressures, Ascending aortic aneurysm, HTN, HLD, depression, breast lump, memory loss, recent diarrhea, 3 mo worsening fatigue and SOB.</t>
+  </si>
+  <si>
+    <t>06/01/2014 13:06:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - inaccurate I/O's yesterday, still mildly volume up. Will decrease to 80mg IV lasix once today. 
@@ -437,10 +1028,48 @@
 PGY-2, PIC 63069</t>
   </si>
   <si>
-    <t xml:space="preserve">06/02/2014 09:43:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- inaccurate I/O's yesterday, still mildly volume up. Will decrease to 80mg IV lasix once today. 
+- check BNP to better monitor fluid status
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- CMV PCR negative
+- Low sodium diet, I's/O's, fluid restriction
+- BP well controlled: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 320 (increased on 5/31)
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd, Pradaxa
+Elevated INR: 
+Notably with INR 2-3 since at least January. Prior to that in 2012, was wnl. Notably, literature review reveals that direct thrombin inhibitors (pradaxa) can cause PT prolongation. LFT's are wnl and no evidence of cirrhosis. Could possibly suggest vit K deficiency (chronic diarrhea) although Ca wnl suggests lack of Vit D deficiency which would likely also be present. 
+- sending full coags, DIC panel (fibrinogen, haptoglobin, ddimer)
+- hepatitis panel
+- defer further w/u at this time as likely explained by pradaxa
+Subacute Diarrhea
+- Unclear etiology. W/u pertinent for +fecal leuks, negative C diff toxin, negative CMV, weak positive EBV, pending stool cx and microsporidium
+- Deferring colonoscopy/EGD while working up elevated INR. Needs to be on clear liquid diet for full 24 hours prior to prep. 
+T2DM
+- A1c 9
+- Continue Lantus 20u qhs, SSI, POCT
+Ascending aortic aneurysm
+- 5.4 cm on TTE one year ago
+- Non-con chest shows dimensions of 6.1 cm.
+- Consulting CT surgery tomorrow for assistance
+Breast mass
+- Seen on chest CT as well
+- Getting diagnostic mammogram here on Monday. Will call in am to confirm.
+On Pradaxa
+Low sodium diet
+Full code
+Geoff Southmayd, MD
+PGY-2, PIC 63069</t>
+  </si>
+  <si>
+    <t>06/02/2014 09:43:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - suspect patient is nearing euvolemia, will hold diuresis given her rising AKI
@@ -478,10 +1107,48 @@
 PGY-2, PIC 63069</t>
   </si>
   <si>
-    <t xml:space="preserve">06/03/2014 14:07:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- suspect patient is nearing euvolemia, will hold diuresis given her rising AKI
+- BNP improved 1100 --&gt; 600, suspect this is near baseline. (Historically 500 in 2012)
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- CMV PCR negative
+- Low sodium diet, I's/O's, fluid restriction
+- BP well controlled: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 320 (increased on 5/31)
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd, Pradaxa
+Elevated INR: 
+Notably with INR 2-3 since at least January. Prior to that in 2012, was wnl. Etiology unclear. Patient has no coumadin exposure but has been on pradaxa, which can cause INR elevation. Also possible, nutritional and fat-soluble vit deficiencies secondary to chronic diarrhea (although Ca wnl would suggest against vit D def). LFT's are wnl and synthetic function appears otherwise intact. DIC panel negative. 
+- f/u hepatitis panel
+- sending RUQ US to r/o cirrhotic morphology
+- hold pradaxa
+- will ask for hematology assistance
+- defer to heme re: utility of sending vit K level
+Subacute Diarrhea
+- Unclear etiology. W/u pertinent for +fecal leuks, negative C diff toxin, negative CMV, weak positive EBV, pending stool cx and microsporidium
+- plan for EGD/Colon pending workup of coagulopathy above. (will need 24 hrs clear liquid diet, then prep. Call GI the day before)
+T2DM A1c 9
+- Continue Lantus 20u qhs, SSI, POCT
+- well controlled am, poor control after meals. Begin aspart 4u qac
+Ascending aortic aneurysm
+- CTS consulted. Non-contrast CT is unreliable for showing interval increase. 
+- patient is currently a poor surgical candidate. Will focus on her acute issues currently, refer for outpatient CT w contrast vs MRA after discharge
+Breast mass
+- diagnostic mammogram today. If suspicion for malignancy, could change goals of care. 
+Pradaxa held. Begin heparin subQ
+Low sodium diet
+Full code
+Geoff Southmayd, MD
+PGY-2, PIC 63069</t>
+  </si>
+  <si>
+    <t>06/03/2014 14:07:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - suspect patient is nearing euvolemia, will hold diuresis given her rising AKI
@@ -520,10 +1187,49 @@
 PGY-2, PIC 63069</t>
   </si>
   <si>
-    <t xml:space="preserve">06/04/2014 13:25:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- suspect patient is nearing euvolemia, will hold diuresis given her rising AKI
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- Echo completed, results pending
+- CMV PCR negative
+- Low sodium diet, I's/O's, fluid restriction
+- BP well controlled: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 320 (increased on 5/31)
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd. Holding pradaxa
+Subacute Diarrhea
+- Unclear etiology. W/u pertinent for +fecal leuks, negative C diff toxin, negative CMV, weak positive EBV, pending stool cx and microsporidium
+- INR improved
+- clear liquid diet today, bowel prep tonight, NPO after MN for colonscopy +/- EGD tomorrow
+Elevated INR: 
+- appreciate hematology assistance
+- likely secondary to pradaxa in the setting of CKD. INR improving with holding dose. 
+- pending 24 hr urine, if CrCl &lt; 30 will need to redose 
+- RUQ US pending, low suspicion for cirrhosis
+Breast mass
+- breast biopsy today, follow up results
+T2DM A1c 9
+- Continue Lantus 20u qhs, SSI, POCT
+- well controlled am, poor control after meals. Begin aspart 4u qac
+AKI on CKD: 
+- Crt 1.8 above BL 1.5. Holding diuresis as above
+Ascending aortic aneurysm
+- CTS consulted. Non-contrast CT is unreliable for showing interval increase. 
+- patient is currently a poor surgical candidate. Will focus on her acute issues currently, refer for outpatient CT w contrast vs MRA after discharge
+Pradaxa held. Begin heparin subQ
+Low sodium diet
+Full code
+Geoff Southmayd, MD
+PGY-2, PIC 63069</t>
+  </si>
+  <si>
+    <t>06/04/2014 13:25:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - mildly volume up today. Will hold diuretics given her upcoming procedures, likely resume torsemide 50 tomorrow
@@ -556,10 +1262,43 @@
 PGY-2, PIC 63069</t>
   </si>
   <si>
-    <t xml:space="preserve">06/05/2014 14:39:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- mildly volume up today. Will hold diuretics given her upcoming procedures, likely resume torsemide 50 tomorrow
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- Low sodium diet, I's/O's, fluid restriction
+- BP well controlled: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 320 (increased on 5/31)
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd. 
+- Holding pradaxa due to recent biopsies, will resume at reduced dose given CrCl &lt; 30, appreciate recs
+Subacute Diarrhea
+- Unclear etiology. W/u pertinent for +fecal leuks, negative C diff toxin, negative CMV, weak positive EBV, pending stool cx and microsporidium
+- colonoscopy today with edematous mucosa, biopsies pending
+Hemorrhagic gastritis:
+Noted on EGD today. H/H has been stable. 
+- cont PPI, f/u biopsies and H pylori. Avoid nsaids
+Breast mass
+- biopsy results pending
+T2DM A1c 9
+- Continue Lantus 20u qhs, SSI, POCT
+AKI on CKD: 
+- Crt improved with diuretic holiday. BL 1.5
+Ascending aortic aneurysm
+- Echo today notably with stable size 5.2 cm. Suspect CT was over-read due to no contrast
+PPx: heparin subQ
+Low sodium diet
+Full code
+Geoff Southmayd, MD
+PGY-2, PIC 63069</t>
+  </si>
+  <si>
+    <t>06/05/2014 14:39:00</t>
+  </si>
+  <si>
+    <t>73 yo female with hx of OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
 SOB, hx of OHT, CAV, and graft dysfunction
 - RHC shows elevated PCWP and R-sided pressures
 - resume toresmide 50 daily
@@ -594,10 +1333,46 @@
 PGY-2, PIC 63069</t>
   </si>
   <si>
-    <t xml:space="preserve">06/05/2014 23:03:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months. At her baseline, she was able to go to the grocery store and do her own shopping. However, it has now progressed to the point where she has trouble walking all the way to the kitchen. She feels like her appetite is OK, though gets occasional indigestion and vomits once a week. She thinks her allergies and post-nasal drip may contribute to it. Her PCWP was found to be 26, and her mean PA pressure was 36.
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months
+SOB, hx of OHT, CAV, and graft dysfunction
+- RHC shows elevated PCWP and R-sided pressures
+- resume toresmide 50 daily
+- Continue home IS meds: cyclosporine, sirolimus, prednisone. Levels appear to be in good range.
+- Low sodium diet, I's/O's, fluid restriction
+- BP well controlled: will continue home meds of clonidine 0.1 mg BID, Toprol-XL 100 mg daily, Valsartan 320 (increased on 5/31)
+- Continue home ASA, Plavix, fenofibrate
+Atrial fibrillation
+- Rate-controlled.
+- Continue Toprol XL 100 mg qd. 
+- Resume pradaxa at decreased dose, 75mg bid
+Subacute Diarrhea
+- W/u pertinent for +fecal leuks, negative C diff toxin, negative CMV, weak positive EBV, pending stool cx and microsporidium
+- colonoscopy with non-specific findings. Edema likely 2/2 CHF
+- currently resolved. Advised to try loperamide prn
+Hemorrhagic gastritis:
+ - H pylori negative. H/H stable. PPI daily on discharge
+Breast mass
+- biopsy results non-diagnostic. Advised patient to discuss repeat biopsy with her PCP on f/u visit in 1-2 wks. Will call IR and see if able to schedule outpatient
+T2DM A1c 9
+- Continue Lantus 20u qhs, SSI, POCT
+AKI on CKD: 
+- Stable to resume diuresis, BL 1.5
+Ascending aortic aneurysm
+- Echo today notably with stable size 5.2 cm. Suspect CT was over-read due to no contrast
+PPx: heparin subQ
+Low sodium diet
+Full code
+Best contact number for patient: Debbie (daughter) cell 910-785-2661
+Dispo: d/c home today
+Geoff Southmayd, MD
+PGY-2, PIC 63069</t>
+  </si>
+  <si>
+    <t>06/05/2014 23:03:00</t>
+  </si>
+  <si>
+    <t>Presenting History: 
+  73 yo female with hx oh OHT 1998, CAV 3, DM, A-fib on Pradaxa, CVA presenting from clinic after routine RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months. At her baseline, she was able to go to the grocery store and do her own shopping. However, it has now progressed to the point where she has trouble walking all the way to the kitchen. She feels like her appetite is OK, though gets occasional indigestion and vomits once a week. She thinks her allergies and post-nasal drip may contribute to it. Her PCWP was found to be 26, and her mean PA pressure was 36.
 Hospital Course by Problem List: 
 Acute Decompensated Sysolic Heart Failure in the setting of prior OHT with CAV-3 and Graft dysfunction: 
 Admit following outpatient RHC/LHC revealing elevated filling pressures. Also with worsening left and right sided HF symptoms. Initiated on diuretic regimen with 120 IV lasix daily, ultimately transitioned to torsemide 50mg daily with 6 kg weight loss to euvolemia by time of discharge. Patient was medically optimized, to be discharged on ASA, statin, BB, and ARB. Contineud on immunosuppression with cyclosporine, sirolimus, prednisone. 
@@ -613,7 +1388,80 @@
 Known diagnosis from prior TTE, 5.4 cm 1 year ago. There was concern on admission CT for interval progression to 6.1 cm, however on repeat echo dimension was noted to be 5.2 cm. CT was evaluatee by CT surgery and thought to be inaccurate given non-contrasted study. Should continue routine surveillance. Notably would be poor surgical candidate should the size progress.</t>
   </si>
   <si>
-    <t xml:space="preserve">04/16/2015 12:30:00</t>
+    <t>RHC/LHC showed elevated PCWP and R-sided pressures. Patient has been complaining of worsening fatigue and SOB for more than 3 months. At her baseline, she was able to go to the grocery store and do her own shopping. However, it has now progressed to the point where she has trouble walking all the way to the kitchen. She feels like her appetite is OK, though gets occasional indigestion and vomits once a week. She thinks her allergies and post-nasal drip may contribute to it. Her PCWP was found to be 26, and her mean PA pressure was 36.
+Hospital Course by Problem List: 
+Acute Decompensated Sysolic Heart Failure in the setting of prior OHT with CAV-3 and Graft dysfunction: 
+Admit following outpatient RHC/LHC revealing elevated filling pressures. Also with worsening left and right sided HF symptoms. Initiated on diuretic regimen with 120 IV lasix daily, ultimately transitioned to torsemide 50mg daily with 6 kg weight loss to euvolemia by time of discharge. Patient was medically optimized, to be discharged on ASA, statin, BB, and ARB. Contineud on immunosuppression with cyclosporine, sirolimus, prednisone. 
+Acute on Chronic Kidney Disease, Coagulopathy:
+Creatinine up to 1.8 above BL 1.5, cardiorenal in etiology. As a complication of CKD, patient was noted to have elevated INR to 2.8 in the setting of pradaxa use. Hematology was consulted and etiology of coagulopathy thought to be secondary to supratherapeutic pradaxa dosing, recommended 24 hour urine to quantify specific CrCl. Per results, it was determined that pradaxa dose be decreased to 75mg bid, and INR downtrended appropriately. 
+Subacute Diarrhea, N/V:
+Presenting complaint. Patient underwent fairly extensive w/u in house with + fecal leuks, negative C diff, CMV, weakly positive EBV, and negative stool cx/microsporidium. Patient was taken by GI for colonoscopy which was significant for hemorrhagic gastritis without active bleeding, and edematous colonic mucous attributed to decompensated heart failure. Biopsies were taken and were negative for malignancy and for H pylori. Symptoms had resolved by time of discharge. Will continue daily PPI on discharge for gastritis. 
+Breast Mass: 
+Incidental finding on imaging, confirmed on physical exam in left breast around 3 o'clock position. Patient was taken for biopsy with the above results which were unfortunately non-diagnostic. Patient should be reassessed for repeat biopsy outpatient. No B-symptoms to suggest malignancy including weight loss, night sweats. 
+Atrial Fibrillation: 
+On home pradaxa, dose decreased as described above. Rate controlled well with Toprol XL 100 daily. 
+Ascending Aortic Aneurysm: 
+Known diagnosis from prior TTE, 5.4 cm 1 year ago. There was concern on admission CT for interval progression to 6.1 cm, however on repeat echo dimension was noted to be 5.2 cm. CT was evaluatee by CT surgery and thought to be inaccurate given non-contrasted study. Should continue routine surveillance. Notably would be poor surgical candidate should the size progress.</t>
+  </si>
+  <si>
+    <t>04/16/2015 12:30:00</t>
+  </si>
+  <si>
+    <t>Findings:
+Coronary Anatomy on Diagnostic Catheterization 
+Dominance 
+Right. 
+Left Main Coronary Artery 
+very wide LM. 
+Proximal LAD 
+Luminal irregularities (&lt;= 10%). 
+Mid/Distal LAD, Diag Branches 
+Mid LAD 
+70 % stenosis. 
+Distal LAD 
+99 % stenosis. 
+Stent in mid/distal LAD has 99% ISR, with 100% occlusion of the LAD in the distal segment of the vessel beyond the stent. 
+Circ, OMs, LPDA, LPL Branches 
+Proximal circumflex artery 
+Luminal irregularities (&lt;= 10%). 
+Third obtuse marginal branch 
+large dominant vessel with two smaller branches both of which are stented. Stents are patent with severely diseased distal portion of vessel.. 
+RCA, RPDA, RPL, AM Branches 
+Proximal RCA 
+Luminal irregularities (&lt;= 10%). 
+Mid RCA 
+40 % stenosis. 
+Right PDA 
+90 % stenosis. 
+diffuse. 
+First right posterolateral artery 
+90 % stenosis. 
+diffuse. 
+Ramus Intermedius 
+Not present. 
+OM3 is a large, branching vessel with patent stents in its branches, but severely distally diseased after these stents. 
+The distal LAD stentis near occluded in its distal segment 
+Normal hemodynamics on RHC
+Miscellaneous:
+Right dominant Circulation
+No V gram due to CKD
+RHC: 
+RA: 8/9/6
+RV: 35/8
+PA: 35/15/23
+PCWP: 17/19/14
+CO: 5.2 L/min
+CI: 2.7 L/min/m2
+PA sat: 63 %
+FA sat: 92 %
+Hgb: 11.6
+SVR: 20.4 WU
+PVR: 1.74 WU
+Impression: 
+Severe, progressive CAV3 disease
+Plan: 
+Will discuss case with Dr. Douglas in regard to possible PCI of LAD 
+Complete echocardiogram today</t>
   </si>
   <si>
     <t xml:space="preserve">hemodynamics on RHC
@@ -637,10 +1485,93 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">04/16/2015 14:51:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/20/2018 16:52:00</t>
+    <t xml:space="preserve">: 8/9/6
+</t>
+  </si>
+  <si>
+    <t>04/16/2015 14:51:00</t>
+  </si>
+  <si>
+    <t>Summary 
+Procedure: Left + Right Heart Catheterization
+Indication: Annual LHC/RHC following OHT in 1998
+Access: 6Fr RCFA, 8 Fr RCFV
+Contrast: 35cc
+Access Issues/Recommendations: 
+None
+Catheters: 
+Used 5Fr JL4, 4.5, and eventually obtained LM cannulation w JL5. Recommend JL5 or even JL6 for next cath. JR4 used for RCA without issues. 
+Coronary Anatomy Variations: 
+None
+Vascular Closure: 
+5 Fr Exoseal RCFA
+Manual compression of RCFV
+Findings:
+OM3 is a large, branching vessel with patent stents in its branches, but severely distally diseased after these stents. 
+The distal LAD stentis near occluded in its distal segment 
+Normal hemodynamics on RHC
+Miscellaneous:
+Right dominant Circulation
+No V gram due to CKD
+RHC: 
+RA: 8/9/6
+RV: 35/8
+PA: 35/15/23
+PCWP: 17/19/14
+CO: 5.2 L/min
+CI: 2.7 L/min/m2
+PA sat: 63 %
+FA sat: 92 %
+Hgb: 11.6
+SVR: 20.4 WU
+PVR: 1.74 WU
+Impression: 
+Severe, progressive CAV3 disease
+Plan: 
+Will discuss case with Dr. Douglas in regard to possible PCI of LAD 
+Complete echocardiogram today</t>
+  </si>
+  <si>
+    <t>11/20/2018 16:52:00</t>
+  </si>
+  <si>
+    <t>Procedure:
+Left Heart Catheterization
+Coronary angiography 
+Right Heart Catheterization
+Indication:
+s/p OHT - surveillance 
+Access:
+Right femoral artery -- 6 Fr
+Right femoral vein -- 7 Fr
+Hemostasis:
+Manual pressure
+Catheters used
+Swan-Ganz catheter
+5Fr JR4
+5FR JL5
+Procedure in detail:
+After informed consent was obtained, the patient was prepped and draped in the usual sterile fashion. Right femoral arterial and venous access were obtained using a micropunture needle and Seldinger technique under ultrasound guidance. For the RHC, a Swan-ganz catheter was advanced under fluoroscopic guidance, measuring RA, RV, PA, PCW pressures. PA and FA sats were obtained. For the LHC, a 5 Fr JL5 catheter was used to engage the LCA and a JR4 to engage the RCA. Multiple projections for each artery were obtained. 
+Impression:
+--CAV-3 (diffuse luminal irregularities with distal tapering); stable
+--Elevated filling pressures; PCWP mean = 20
+--Evidence of TR on RHC
+Angiogram details:
+LM: normal
+LAD: distal LAD stent is functionally occluded (seen on prior); luminal irregularities with distal tapering
+LCX: patent OM1 and OM2 stents; luminal irregularities with distal tapering
+RCA: middle napkin ring stenosis (stable); luminal irregularities with distal tapering
+LVEF~ Not assessed
+Hemodynamics
+RA 8 mmHg
+RV 41/9 mmHg
+PA 48/18 mmHg
+PCW 20 mmHg
+Hgb 10, PA sat 65.3%, FA sat 93.6% CO 3.25/ CI 5.96
+Plan:
+Transfer to the COA
+TTE
+Follow-up with transplant team (need to adjust her diuresis regimen)</t>
   </si>
   <si>
     <t xml:space="preserve">Hemodynamics
@@ -651,13 +1582,15 @@
 Hgb 10, PA sat 65.3%, FA sat 93.6% CO 3.25/ CI 5.96
 </t>
   </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -686,13 +1619,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -974,14 +1919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,346 +1938,500 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2522</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2522</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2522</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2522</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2522</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>3601</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6774</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6774</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>6774</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>6774</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>6774</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>7338</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>7338</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>8239</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>8239</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>8239</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>10512</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>10512</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>10512</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10512</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10512</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10512</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10512</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10512</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>10512</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>10512</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>10512</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>10512</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>10512</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>10512</v>
       </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>10512</v>
       </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>10512</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>10512</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>10512</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>10512</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>10512</v>
-      </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>